--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_New_York/Pandémie_de_Covid-19_à_New_York.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_New_York/Pandémie_de_Covid-19_à_New_York.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_New_York</t>
+          <t>Pandémie_de_Covid-19_à_New_York</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, l'État de New York est l'un des plus touchés par la mortalité de la Covid-19, notamment dans et autour de la ville de New York.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_New_York</t>
+          <t>Pandémie_de_Covid-19_à_New_York</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Alentours de la ville de New York</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mortalité de la Covid-19 dans les quartiers de New York, 23 mai 2020</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_New_York</t>
+          <t>Pandémie_de_Covid-19_à_New_York</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Cas au fil du temps</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir ou modifier les données brutes du graphique.
 Voir ou modifier les données brutes du graphique.
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_New_York</t>
+          <t>Pandémie_de_Covid-19_à_New_York</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Les vaccinations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2020, les vaccins covid ont été administrés pour la première fois aux médecins, aux infirmières, aux patients à haut risque et aux intervenants d'urgence. En janvier 2021, des vaccins ont également été administrés à certains épiciers, enseignants et travailleurs du transport en commun. En février 2021, certains restaurateurs, livreurs et chauffeurs de taxi étaient éligibles au vaccin[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2020, les vaccins covid ont été administrés pour la première fois aux médecins, aux infirmières, aux patients à haut risque et aux intervenants d'urgence. En janvier 2021, des vaccins ont également été administrés à certains épiciers, enseignants et travailleurs du transport en commun. En février 2021, certains restaurateurs, livreurs et chauffeurs de taxi étaient éligibles au vaccin.
 </t>
         </is>
       </c>
